--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22980025-1EB3-4846-9F3F-B7716258EB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE27DE0-5D87-4561-B65D-B8BFB61627F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Item Name</t>
+  </si>
+  <si>
+    <t>2940803</t>
+  </si>
+  <si>
+    <t>LE CHAT ROSE 1L</t>
+  </si>
+  <si>
+    <t>LE CHAT power gel 4L</t>
   </si>
 </sst>
 </file>
@@ -178,9 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +950,34 @@
         <v>377</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2940804</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE27DE0-5D87-4561-B65D-B8BFB61627F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E2F96-A42E-4E39-B92D-6D679CCB4E36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>1190</v>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E2F96-A42E-4E39-B92D-6D679CCB4E36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F99131-1052-4015-BBA1-BAB7F98AC6DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1">
-        <v>164.5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>112.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F99131-1052-4015-BBA1-BAB7F98AC6DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3ED6A2-0DD4-4EE6-AD96-2E26C8D48C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>LE CHAT power gel 4L</t>
+  </si>
+  <si>
+    <t>Pril Power blue 650 ml</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +981,20 @@
         <v>1190</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2943549</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3ED6A2-0DD4-4EE6-AD96-2E26C8D48C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24684F24-461B-4C4C-B993-12B11CA23B0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>130</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24684F24-461B-4C4C-B993-12B11CA23B0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C827DB-3E02-4484-8EC9-9EDB8A3B4E89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Pril Power blue 650 ml</t>
+  </si>
+  <si>
+    <t>2970482</t>
+  </si>
+  <si>
+    <t>Pril Isis Ultra Power 650ml</t>
+  </si>
+  <si>
+    <t>2970224</t>
+  </si>
+  <si>
+    <t>Pril Isis Ultra Power 1.25L</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,17 +994,45 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>2943549</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
         <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C827DB-3E02-4484-8EC9-9EDB8A3B4E89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4CFF85-70A1-4F84-8A70-B72BB32F8951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>568</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,17 +1008,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
+      <c r="A37">
+        <v>2952095</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>168</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,6 +1033,20 @@
       </c>
       <c r="D38" s="1">
         <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4CFF85-70A1-4F84-8A70-B72BB32F8951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0FEE6-708E-4247-9958-81756F402F14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7350" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Bref Triggers Cuisine 500ml</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Bref 900ml javel disinf</t>
   </si>
   <si>
-    <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE   </t>
-  </si>
-  <si>
     <t>ISIS LS powder 2,5 bag Citron Limitless</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>Le Chat LS 2,5kg bag Adv21</t>
   </si>
   <si>
-    <t xml:space="preserve">ISIS HS POWDER ANTIBACTERIAL 750GR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISIS HS POWDER ANTIBACTERIAL 300GR </t>
-  </si>
-  <si>
     <t>ISIS HS POWDER SDM 300GR LIMITLESS</t>
   </si>
   <si>
@@ -112,46 +103,76 @@
     <t>ISIS LS bag 2,5Kg Citron Limitless</t>
   </si>
   <si>
-    <t>Le Chat Reg 2,5L FRESCO</t>
-  </si>
-  <si>
-    <t>Le Chat 1L FRESCO RL</t>
-  </si>
-  <si>
     <t>PRIXUN</t>
   </si>
   <si>
     <t>NBRUN</t>
   </si>
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>2940803</t>
-  </si>
-  <si>
-    <t>LE CHAT ROSE 1L</t>
-  </si>
-  <si>
-    <t>LE CHAT power gel 4L</t>
-  </si>
-  <si>
-    <t>Pril Power blue 650 ml</t>
-  </si>
-  <si>
-    <t>2970482</t>
-  </si>
-  <si>
-    <t>Pril Isis Ultra Power 650ml</t>
-  </si>
-  <si>
-    <t>2970224</t>
-  </si>
-  <si>
-    <t>Pril Isis Ultra Power 1.25L</t>
+    <t xml:space="preserve">ISIS LS gel 900 ml Citron Harmonie  RE                                                                                        </t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER ANTIBACTERIAL 750GR LIMITLESS</t>
+  </si>
+  <si>
+    <t>ISIS HS POWDER ANTIBACTERIAL 300GR LIMITLESS</t>
+  </si>
+  <si>
+    <t>Le Chat 2.5L fresco RL</t>
+  </si>
+  <si>
+    <t>Le Chat 1L fresco RL</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 1L</t>
+  </si>
+  <si>
+    <t>Le Chat 4L fresco RL</t>
+  </si>
+  <si>
+    <t>Pril ISIS Antibactérien 650ML  Lemon</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat SDM 2,5L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 4L ADV23</t>
+  </si>
+  <si>
+    <t>Pril Isis ultra power 1.25L</t>
+  </si>
+  <si>
+    <t>Pril Isis ultra power 650ml</t>
+  </si>
+  <si>
+    <t>Le Chat HS Gel 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Regular 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat Rose 1L ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat HS 750gr ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat HS 300gr ADV23</t>
+  </si>
+  <si>
+    <t>Le Chat 2,5kg bag ADV23</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemNameE</t>
   </si>
 </sst>
 </file>
@@ -489,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,17 +525,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,7 +613,7 @@
         <v>2766729</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -606,7 +627,7 @@
         <v>2766835</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -620,7 +641,7 @@
         <v>2791901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -634,7 +655,7 @@
         <v>2806713</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -648,7 +669,7 @@
         <v>2806719</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -662,7 +683,7 @@
         <v>2817870</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -676,7 +697,7 @@
         <v>2820870</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -690,7 +711,7 @@
         <v>2821686</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>25</v>
@@ -704,7 +725,7 @@
         <v>2823409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
@@ -718,7 +739,7 @@
         <v>2823411</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>12</v>
@@ -732,7 +753,7 @@
         <v>2829475</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -746,7 +767,7 @@
         <v>2830113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>25</v>
@@ -760,7 +781,7 @@
         <v>2830114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>12</v>
@@ -774,7 +795,7 @@
         <v>2845955</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>12</v>
@@ -788,7 +809,7 @@
         <v>2845956</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -802,7 +823,7 @@
         <v>2845959</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>12</v>
@@ -816,7 +837,7 @@
         <v>2859185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -830,7 +851,7 @@
         <v>2860119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -844,7 +865,7 @@
         <v>2875891</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>25</v>
@@ -858,7 +879,7 @@
         <v>2875892</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
@@ -872,7 +893,7 @@
         <v>2875893</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -886,7 +907,7 @@
         <v>2876884</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -900,7 +921,7 @@
         <v>2910278</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>12</v>
@@ -914,7 +935,7 @@
         <v>2917788</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
@@ -928,7 +949,7 @@
         <v>2918203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
@@ -942,7 +963,7 @@
         <v>2922764</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -956,7 +977,7 @@
         <v>2922795</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -966,11 +987,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
+      <c r="A34" s="2">
+        <v>2940803</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3">
         <v>10</v>
@@ -984,7 +1005,7 @@
         <v>2940804</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -998,7 +1019,7 @@
         <v>2943549</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <v>12</v>
@@ -1009,43 +1030,169 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>2951994</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2952074</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2952081</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2952089</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2952090</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2952095</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D42" s="1">
         <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2958928</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2958931</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2958932</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2958933</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2970224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2970482</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="C48" s="1">
         <v>12</v>
       </c>
-      <c r="D38" s="1">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="D48" s="1">
         <v>168</v>
       </c>
     </row>

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F0FEE6-708E-4247-9958-81756F402F14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4272A-4EBD-449C-8521-2DBCA58F1694}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="7350" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4272A-4EBD-449C-8521-2DBCA58F1694}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CCB64-E8FF-4DA8-A752-3471A6D2DD58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="1">
-        <v>95.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">

--- a/PRIXMM.xlsx
+++ b/PRIXMM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CCB64-E8FF-4DA8-A752-3471A6D2DD58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3628B1-FA94-4D3D-8F67-B5B0E0025D88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>1190</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
